--- a/네트워크분석.xlsx
+++ b/네트워크분석.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="대구" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="대구_일반키워드제외" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="대전" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="울산" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5345,4 +5346,1266 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>words</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>betweenness</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>closeness</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>eigenvector</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>박물관</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.221271304220613</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02840985958772177</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>오션</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2513920053187069</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02439537049319939</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>멋진날</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0002560163850486431</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2982352361234349</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1093874391848527</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>정원</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2527151211361738</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03543707078413483</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>명소</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2712761187337459</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02519786137323613</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>고래</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.07706093189964158</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2927797135114208</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.08572443199954942</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>몽돌</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.05590287556467e-34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>동구</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3000992063492063</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1003208003883112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>롯데</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2513920053187069</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02698127940768335</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>문화</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2222957084068195</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03383638092643777</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>해변</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.05590287556467e-34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.08627752176139272</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3504808249333797</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2217469623412466</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>식당</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2945759080728406</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.04775221405311841</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>여행지</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3019866227413397</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.04667238578801756</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>맛집</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3344427376685441</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4405125964758992</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.520864823262705</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>동굴</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.438155251720041e-30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>할인</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2540522381792223</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06356110384310844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>예약</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0007680491551459293</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.255403579871665</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.06557913300115835</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>언양</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.2945759080728406</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07640354248498944</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>숙소</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0112647209421403</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3266385919447144</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1188973290831164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>방문</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2945759080728406</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.04775221405311841</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>데이트</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.006827103601297149</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3665333818005573</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1933142878342551</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>남구</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2945759080728406</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.09072920670092496</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>위치</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2500826719576719</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01421982332823005</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>명절</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.231960739207116</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.009944499783080984</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>자수정</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.438155251720041e-30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>해수욕장</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2233296419342931</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.005317794834439239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>객실</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2500826719576719</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01421982332823005</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>마을</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2222957084068195</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02234789673647032</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>대형</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2513920053187069</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02642831803429934</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>바다</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.004608294930875576</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.3334435626102293</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.123793004879088</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>축제</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.221271304220613</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.02055706107823919</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>대숲</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1975961852505062</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001034879986256998</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>간절곶</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.3019866227413397</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.09673301789598894</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>달동</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2945759080728406</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.06207787826905393</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>불고기</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2945759080728406</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.05730265686374209</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>다리</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2609558316080055</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1006093872934443</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>조식</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2500826719576719</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01579980369803339</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>추천</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4028844512715479</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4572940287226002</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.4628046721348176</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>시티</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2513920053187069</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.02982804910184734</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>가성</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0002560163850486431</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2527151211361738</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.04268240891736199</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>코드</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2540522381792223</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.05688743369732267</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>대왕암</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01834784092848609</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3665333818005573</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2824479340357538</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>연휴</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2308455433455434</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.006801867304369365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>스테이</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7.253293701976768e-38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>팜파스</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8.438155251720041e-30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>태화강</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1065028161802355</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.3504808249333797</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1132305585057916</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>호텔</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2365591397849462</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.347941108810674</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1723366534380081</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>아고다</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2540522381792223</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.07330250050150086</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>추석</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0409626216077829</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.3117913832199546</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.05299455352355083</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>장생포</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.07706093189964158</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2927797135114208</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.08650249219111471</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>일산</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.02764976958525345</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2982352361234349</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.04833724633261052</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>선물</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01331285202252944</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.3097798259088582</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.05575232589716186</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>울주군</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2513920053187069</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.02032947541099949</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>공원</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01834784092848609</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3665333818005573</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2654060030394155</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>북구</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2945759080728406</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.06207787826905393</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>국가</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2527151211361738</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.03543707078413483</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>댑싸리</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.438155251720041e-30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>십리</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.02764976958525345</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2540522381792223</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0125423808319236</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>체험</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2222957084068195</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.01861864156358266</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>힐링</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2963942778757594</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.06355877872790901</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>생태</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.2222957084068195</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.01861864156358266</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>코스</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.2165898617511521</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3903729513485611</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2748473367577674</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>신라</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7.253293701976768e-38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>